--- a/GDV-Wochenplan-New.xlsx
+++ b/GDV-Wochenplan-New.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9287EEE-8884-4660-A2A2-F318FFA6D6E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACC682-6DB6-45EB-A420-13DA6F3E71A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Layoutverfeinerung</t>
   </si>
   <si>
-    <t>Möbelmodelierung</t>
-  </si>
-  <si>
     <t>Partikel</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Hauptmenü</t>
   </si>
   <si>
-    <t>Zufällige Travernengenerierung</t>
-  </si>
-  <si>
     <t>Deko</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Zuschauer Interaktion</t>
   </si>
   <si>
-    <t>interakives Licht</t>
-  </si>
-  <si>
     <t>Erweiterung Animation, zusätzliche Objekte</t>
   </si>
   <si>
@@ -172,13 +163,22 @@
     <t>Interaktive Dekoobjekte (z.B. Kerze, Münzen, …)</t>
   </si>
   <si>
-    <t>Minispiele (z.B. Dart, Schwankwirt, …)</t>
-  </si>
-  <si>
     <t>Kollision (Spielerinteraktion)</t>
   </si>
   <si>
     <t>Notenerstellung (Spielbereich) - 3D "Billboard"</t>
+  </si>
+  <si>
+    <t>Minispiele (z.B. Dart, Schankwirt, …)</t>
+  </si>
+  <si>
+    <t>interaktives Licht</t>
+  </si>
+  <si>
+    <t>Zufällige Tavernengenerierung</t>
+  </si>
+  <si>
+    <t>Möbelmodellierung</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -569,15 +569,15 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -640,12 +640,12 @@
         <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -654,126 +654,126 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>

--- a/GDV-Wochenplan-New.xlsx
+++ b/GDV-Wochenplan-New.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACC682-6DB6-45EB-A420-13DA6F3E71A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Sven</t>
   </si>
@@ -37,9 +36,6 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>Testlayout</t>
-  </si>
-  <si>
     <t>Urlaub</t>
   </si>
   <si>
@@ -52,39 +48,12 @@
     <t>Abgabe</t>
   </si>
   <si>
-    <t>Steuerung</t>
-  </si>
-  <si>
-    <t>Kamera</t>
-  </si>
-  <si>
     <t>Kamerasteuerung</t>
   </si>
   <si>
-    <t>Regisseur</t>
-  </si>
-  <si>
-    <t>Charaktererstellung</t>
-  </si>
-  <si>
-    <t>Layoutverfeinerung</t>
-  </si>
-  <si>
-    <t>Partikel</t>
-  </si>
-  <si>
-    <t>Beleuchtung</t>
-  </si>
-  <si>
-    <t>automatisierte Beleuchtung</t>
-  </si>
-  <si>
     <t>Hauptmenü</t>
   </si>
   <si>
-    <t>Deko</t>
-  </si>
-  <si>
     <t>Bugfixing</t>
   </si>
   <si>
@@ -172,19 +141,49 @@
     <t>Minispiele (z.B. Dart, Schankwirt, …)</t>
   </si>
   <si>
-    <t>interaktives Licht</t>
-  </si>
-  <si>
     <t>Zufällige Tavernengenerierung</t>
   </si>
   <si>
-    <t>Möbelmodellierung</t>
+    <t>Meilensteine</t>
+  </si>
+  <si>
+    <t>Szenenerstellung</t>
+  </si>
+  <si>
+    <t>Zuschauerverhalten</t>
+  </si>
+  <si>
+    <t>Szenenerstellung/ Anfang zufällige Generierung</t>
+  </si>
+  <si>
+    <t>Kameramodi</t>
+  </si>
+  <si>
+    <t>Beleuchtung (Lichtshow)</t>
+  </si>
+  <si>
+    <t>Lichtshow interaktiv gestalten (rot,blau, grün) je nach Spielleistung</t>
+  </si>
+  <si>
+    <t>interaktives Licht verfeinern (farbübergänge, bewegungen)</t>
+  </si>
+  <si>
+    <t>Partikel (Notenexplosion, etc.)</t>
+  </si>
+  <si>
+    <t>Charaktererstellung (Template)</t>
+  </si>
+  <si>
+    <t>Steuerung (Charakter, Musik)</t>
+  </si>
+  <si>
+    <t>Deko (interaktiv)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,12 +209,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,21 +526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="61.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
@@ -521,26 +552,29 @@
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -556,236 +590,236 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E15" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
